--- a/web/Excel/reporteGeneralCostos.xlsx
+++ b/web/Excel/reporteGeneralCostos.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t xml:space="preserve">Fecha del Reporte </t>
   </si>
   <si>
-    <t>29-06-2021</t>
+    <t>02-07-2021</t>
   </si>
   <si>
     <t xml:space="preserve">MODULO COSTOS COPAG </t>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>Fecha Pedido</t>
+  </si>
+  <si>
+    <t>Pendiente por aprobacion - solicitud</t>
+  </si>
+  <si>
+    <t>jhonatan zambrano</t>
+  </si>
+  <si>
+    <t>CAI centro agropecuario internacional</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
   </si>
 </sst>
 </file>
@@ -91,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thick">
@@ -104,6 +116,20 @@
         <color rgb="000000"/>
       </top>
       <bottom style="thick">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="000000"/>
       </bottom>
     </border>
@@ -111,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -119,6 +145,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -420,10 +449,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B7" sqref="B7:F6"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,6 +522,23 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/web/Excel/reporteGeneralCostos.xlsx
+++ b/web/Excel/reporteGeneralCostos.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t xml:space="preserve">Fecha del Reporte </t>
   </si>
   <si>
-    <t>29-06-2021</t>
+    <t>02-07-2021</t>
   </si>
   <si>
     <t xml:space="preserve">MODULO COSTOS COPAG </t>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>Fecha Pedido</t>
+  </si>
+  <si>
+    <t>Aprobado - cotizacion</t>
+  </si>
+  <si>
+    <t>Julian Giraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotel s.a. </t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
   </si>
 </sst>
 </file>
@@ -91,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thick">
@@ -104,6 +116,20 @@
         <color rgb="000000"/>
       </top>
       <bottom style="thick">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="000000"/>
       </bottom>
     </border>
@@ -111,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -119,6 +145,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -420,10 +449,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B7" sqref="B7:F6"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,6 +522,23 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
